--- a/Database_tables.xlsx
+++ b/Database_tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="15180" windowHeight="9345" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="15180" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="TABLES" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="235">
   <si>
     <t>CATEGORY</t>
   </si>
   <si>
     <t>PRODUCT</t>
-  </si>
-  <si>
-    <t>CUSTOMER_ORDER</t>
   </si>
   <si>
     <t>ORDER_STATUS</t>
@@ -137,17 +134,6 @@
  "CATEGORY_NAME" VARCHAR2(30 BYTE) NOT NULL ENABLE, 
  "CATEGORY_TAG" VARCHAR2(20 BYTE), 
  CONSTRAINT "CATEGORY_PK" PRIMARY KEY ("CATEGORY_ID"));</t>
-  </si>
-  <si>
-    <t>CREATE TABLE CUSTOMER
-   ("CUSTOMER_ID" NUMBER(10,0) NOT NULL ENABLE, 
- "FIRST_NAME" VARCHAR2(20 BYTE) NOT NULL ENABLE, 
- "LAST_NAME" VARCHAR2(20 BYTE), 
- "EMAIL_ID" VARCHAR2(40 BYTE), 
- "PHONE_NUMBER" NUMBER(20,0) NOT NULL ENABLE, 
- "ADDRESS" VARCHAR2(100 BYTE) NOT NULL ENABLE, 
- "CITY" VARCHAR2(20 BYTE) NOT NULL ENABLE, 
- CONSTRAINT "CUSTOMER_PK" PRIMARY KEY ("CUSTOMER_ID"));</t>
   </si>
   <si>
     <t>CREATE TABLE CUSTOMER_ORDER
@@ -165,13 +151,6 @@
  REFERENCES "HR"."INVOICE" ("INVOICE_ID") ENABLE);</t>
   </si>
   <si>
-    <t>CREATE TABLE CUSTOMER_ROLE
-   ("CUSTOMER_ID" NUMBER(10,0) NOT NULL ENABLE, 
- "PASSWORD" VARCHAR2(30 BYTE) NOT NULL ENABLE, 
- "ROLE" VARCHAR2(20 BYTE) NOT NULL ENABLE, 
- CONSTRAINT "CUSTOMER_ROLE_PK" PRIMARY KEY ("CUSTOMER_ID"));</t>
-  </si>
-  <si>
     <t>CREATE TABLE INVOICE
    ("INVOICE_ID" NUMBER(10,0) NOT NULL ENABLE, 
  "TOTAL_PRODUCT_PRICE" FLOAT(20) NOT NULL ENABLE, 
@@ -752,6 +731,55 @@
   </si>
   <si>
     <t>McAfee LiveSafe Total Security (Unlimited Devices)</t>
+  </si>
+  <si>
+    <t>CREATE TABLE CUSTOMER
+   ("CUSTOMER_ID" NUMBER(10,0) NOT NULL ENABLE, 
+ "FIRST_NAME" VARCHAR2(20 BYTE) NOT NULL ENABLE, 
+ "LAST_NAME" VARCHAR2(20 BYTE), 
+ "EMAIL_ID" VARCHAR2(40 BYTE), 
+ "PHONE_NUMBER" VARCHAR2(20 BYTE) NOT NULL ENABLE, 
+ "ADDRESS" VARCHAR2(100 BYTE) NOT NULL ENABLE, 
+ "CITY" VARCHAR2(20 BYTE) NOT NULL ENABLE, 
+ CONSTRAINT "CUSTOMER_PK" PRIMARY KEY ("CUSTOMER_ID"));</t>
+  </si>
+  <si>
+    <t>ORDERS</t>
+  </si>
+  <si>
+    <t>CREATE TABLE CUSTOMER_ROLE
+   ("CUSTOMER_ID" NUMBER(10,0) NOT NULL ENABLE, 
+ "PASSWORD" VARCHAR2(30 BYTE) NOT NULL ENABLE, 
+ "ROLE" VARCHAR2(20 BYTE) NOT NULL ENABLE, 
+ "ENABLED" NUMBER(1,0) NOT NULL ENABLE,  
+ CONSTRAINT "CUSTOMER_ROLE_PK" PRIMARY KEY ("CUSTOMER_ID"));</t>
+  </si>
+  <si>
+    <t>gaurav</t>
+  </si>
+  <si>
+    <t>rohan</t>
+  </si>
+  <si>
+    <t>amit</t>
+  </si>
+  <si>
+    <t>rahul</t>
+  </si>
+  <si>
+    <t>rohit</t>
+  </si>
+  <si>
+    <t>amar</t>
+  </si>
+  <si>
+    <t>priya</t>
+  </si>
+  <si>
+    <t>USERNAME</t>
+  </si>
+  <si>
+    <t>ENABLED</t>
   </si>
 </sst>
 </file>
@@ -1269,8 +1297,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1287,8 +1315,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15">
-      <c r="A1" s="9" t="s">
-        <v>29</v>
+      <c r="A1" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1300,16 +1328,20 @@
     </row>
     <row r="2" spans="1:8" ht="15">
       <c r="A2" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>234</v>
+      </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="11"/>
@@ -1326,7 +1358,7 @@
     </row>
     <row r="4" spans="1:8" ht="15">
       <c r="A4" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -1338,25 +1370,25 @@
     </row>
     <row r="5" spans="1:8" ht="15">
       <c r="A5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="C5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>12</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>13</v>
       </c>
       <c r="H5" s="11"/>
     </row>
@@ -1384,13 +1416,13 @@
     </row>
     <row r="8" spans="1:8" ht="15">
       <c r="A8" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>5</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>6</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -1422,25 +1454,25 @@
     </row>
     <row r="11" spans="1:8" ht="15">
       <c r="A11" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="D11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>18</v>
-      </c>
       <c r="E11" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>24</v>
       </c>
       <c r="H11" s="11"/>
     </row>
@@ -1456,7 +1488,7 @@
     </row>
     <row r="13" spans="1:8" ht="15">
       <c r="A13" s="9" t="s">
-        <v>2</v>
+        <v>224</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -1468,19 +1500,19 @@
     </row>
     <row r="14" spans="1:8" ht="15">
       <c r="A14" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="25" t="s">
-        <v>26</v>
-      </c>
       <c r="E14" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -1498,7 +1530,7 @@
     </row>
     <row r="16" spans="1:8" ht="15">
       <c r="A16" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -1510,13 +1542,13 @@
     </row>
     <row r="17" spans="1:8" ht="15">
       <c r="A17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>20</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -1536,7 +1568,7 @@
     </row>
     <row r="19" spans="1:8" ht="15">
       <c r="A19" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -1548,13 +1580,13 @@
     </row>
     <row r="20" spans="1:8" ht="15">
       <c r="A20" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>22</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -1574,7 +1606,7 @@
     </row>
     <row r="22" spans="1:8" ht="15">
       <c r="A22" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -1586,19 +1618,19 @@
     </row>
     <row r="23" spans="1:8" ht="15">
       <c r="A23" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="12" t="s">
+      <c r="D23" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="E23" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>35</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -1842,7 +1874,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1861,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1874,10 +1906,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>38</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1890,10 +1922,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>2</v>
+        <v>224</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1901,15 +1933,15 @@
       <c r="B6" s="5"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:3" ht="63.75">
+    <row r="7" spans="1:3" ht="76.5">
       <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>40</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1922,10 +1954,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1938,10 +1970,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1954,10 +1986,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1973,7 +2005,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2004,13 +2036,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
@@ -2018,10 +2050,10 @@
         <v>10001</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25">
@@ -2029,10 +2061,10 @@
         <v>10002</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25">
@@ -2040,10 +2072,10 @@
         <v>10003</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25">
@@ -2051,10 +2083,10 @@
         <v>10004</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25">
@@ -2062,10 +2094,10 @@
         <v>10005</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25">
@@ -2073,10 +2105,10 @@
         <v>10006</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25">
@@ -2084,10 +2116,10 @@
         <v>10007</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25">
@@ -2095,10 +2127,10 @@
         <v>10008</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.25">
@@ -2106,10 +2138,10 @@
         <v>10009</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.25">
@@ -2117,10 +2149,10 @@
         <v>10010</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25">
@@ -2128,10 +2160,10 @@
         <v>10011</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2146,84 +2178,156 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="11.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.25">
-      <c r="A2" s="28">
+    <row r="1" spans="1:5" ht="25.5">
+      <c r="A1" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25">
+      <c r="A2" s="32">
         <v>100001</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.25">
-      <c r="A3" s="28">
+      <c r="B2" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.25">
+      <c r="A3" s="32">
         <v>100002</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.25">
-      <c r="A4" s="28">
+      <c r="B3" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.25">
+      <c r="A4" s="32">
         <v>100003</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.25">
-      <c r="A5" s="28">
+      <c r="B4" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.25">
+      <c r="A5" s="32">
         <v>100004</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.25">
-      <c r="A6" s="28">
+      <c r="B5" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.25">
+      <c r="A6" s="32">
         <v>100005</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>63</v>
+      <c r="B6" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.25">
+      <c r="A7" s="32">
+        <v>100006</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.25">
+      <c r="A8" s="32">
+        <v>100007</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="32">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2236,7 +2340,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2253,25 +2357,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="C1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="33" t="s">
-        <v>9</v>
-      </c>
       <c r="D1" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="33" t="s">
         <v>12</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25">
@@ -2279,22 +2383,22 @@
         <v>100001</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E2" s="32">
         <v>9827166315</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25">
@@ -2302,22 +2406,22 @@
         <v>100002</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E3" s="32">
         <v>7351145621</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25">
@@ -2325,22 +2429,22 @@
         <v>100003</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E4" s="32">
         <v>9827166312</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25">
@@ -2348,22 +2452,22 @@
         <v>100004</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E5" s="32">
         <v>9827165478</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25">
@@ -2371,22 +2475,22 @@
         <v>100005</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E6" s="32">
         <v>7896541236</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2398,8 +2502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2416,25 +2520,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25">
@@ -2442,13 +2546,13 @@
         <v>1000001</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C2" s="34">
         <v>12999</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E2" s="36">
         <v>10001</v>
@@ -2465,13 +2569,13 @@
         <v>1000002</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C3" s="34">
         <v>11999</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E3" s="36">
         <v>10001</v>
@@ -2488,13 +2592,13 @@
         <v>1000003</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C4" s="34">
         <v>29999</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E4" s="36">
         <v>10001</v>
@@ -2511,13 +2615,13 @@
         <v>1000004</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C5" s="34">
         <v>38299</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E5" s="36">
         <v>10001</v>
@@ -2534,13 +2638,13 @@
         <v>1000005</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C6" s="34">
         <v>13999</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E6" s="36">
         <v>10001</v>
@@ -2557,13 +2661,13 @@
         <v>1000006</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C7" s="34">
         <v>32999</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E7" s="36">
         <v>10001</v>
@@ -2580,13 +2684,13 @@
         <v>1000007</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C8" s="34">
         <v>35249</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E8" s="36">
         <v>10001</v>
@@ -2603,13 +2707,13 @@
         <v>1000008</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C9" s="34">
         <v>40999</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E9" s="36">
         <v>10001</v>
@@ -2626,13 +2730,13 @@
         <v>1000009</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C10" s="34">
         <v>69999</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E10" s="36">
         <v>10001</v>
@@ -2649,13 +2753,13 @@
         <v>1000010</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C11" s="34">
         <v>89999</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E11" s="36">
         <v>10001</v>
@@ -2672,13 +2776,13 @@
         <v>1000011</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C12" s="34">
         <v>74899</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E12" s="36">
         <v>10001</v>
@@ -2695,13 +2799,13 @@
         <v>1000012</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C13" s="34">
         <v>68490</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E13" s="36">
         <v>10001</v>
@@ -2718,13 +2822,13 @@
         <v>1000013</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C14" s="34">
         <v>54999</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E14" s="36">
         <v>10001</v>
@@ -2741,13 +2845,13 @@
         <v>1000014</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C15" s="34">
         <v>44350</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E15" s="36">
         <v>10001</v>
@@ -2764,13 +2868,13 @@
         <v>1000015</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C16" s="34">
         <v>40999</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E16" s="36">
         <v>10001</v>
@@ -2787,13 +2891,13 @@
         <v>1000016</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C17" s="34">
         <v>52999</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E17" s="36">
         <v>10001</v>
@@ -2810,13 +2914,13 @@
         <v>1000017</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C18" s="34">
         <v>55890</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E18" s="36">
         <v>10001</v>
@@ -2833,13 +2937,13 @@
         <v>1000018</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C19" s="34">
         <v>75000</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E19" s="36">
         <v>10002</v>
@@ -2856,13 +2960,13 @@
         <v>1000019</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C20" s="34">
         <v>45500</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E20" s="36">
         <v>10002</v>
@@ -2879,13 +2983,13 @@
         <v>1000020</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C21" s="34">
         <v>25699</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E21" s="36">
         <v>10002</v>
@@ -2902,13 +3006,13 @@
         <v>1000021</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C22" s="34">
         <v>49350</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E22" s="36">
         <v>10002</v>
@@ -2925,13 +3029,13 @@
         <v>1000022</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C23" s="34">
         <v>15650</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E23" s="36">
         <v>10002</v>
@@ -2948,13 +3052,13 @@
         <v>1000023</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C24" s="34">
         <v>17999</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E24" s="36">
         <v>10002</v>
@@ -2971,13 +3075,13 @@
         <v>1000024</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C25" s="34">
         <v>26999</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E25" s="36">
         <v>10002</v>
@@ -2994,13 +3098,13 @@
         <v>1000025</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C26" s="34">
         <v>15999</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E26" s="36">
         <v>10002</v>
@@ -3017,13 +3121,13 @@
         <v>1000026</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C27" s="34">
         <v>18999</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E27" s="36">
         <v>10002</v>
@@ -3040,13 +3144,13 @@
         <v>1000027</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C28" s="34">
         <v>16350</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E28" s="36">
         <v>10002</v>
@@ -3063,13 +3167,13 @@
         <v>1000028</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C29" s="34">
         <v>11700</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E29" s="36">
         <v>10002</v>
@@ -3086,13 +3190,13 @@
         <v>1000029</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C30" s="34">
         <v>82000</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E30" s="36">
         <v>10002</v>
@@ -3109,13 +3213,13 @@
         <v>1000030</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C31" s="34">
         <v>25699</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E31" s="36">
         <v>10002</v>
@@ -3132,13 +3236,13 @@
         <v>1000031</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C32" s="34">
         <v>45500</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E32" s="36">
         <v>10003</v>
@@ -3155,13 +3259,13 @@
         <v>1000032</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C33" s="34">
         <v>65699</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E33" s="36">
         <v>10003</v>
@@ -3178,13 +3282,13 @@
         <v>1000033</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C34" s="34">
         <v>49350</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E34" s="36">
         <v>10003</v>
@@ -3201,13 +3305,13 @@
         <v>1000034</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C35" s="34">
         <v>55650</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E35" s="36">
         <v>10003</v>
@@ -3224,13 +3328,13 @@
         <v>1000035</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C36" s="34">
         <v>57999</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E36" s="36">
         <v>10003</v>
@@ -3247,13 +3351,13 @@
         <v>1000036</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C37" s="34">
         <v>26999</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E37" s="36">
         <v>10003</v>
@@ -3270,13 +3374,13 @@
         <v>1000037</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C38" s="34">
         <v>35999</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E38" s="36">
         <v>10003</v>
@@ -3293,13 +3397,13 @@
         <v>1000038</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C39" s="34">
         <v>38999</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E39" s="36">
         <v>10003</v>
@@ -3316,13 +3420,13 @@
         <v>1000039</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C40" s="34">
         <v>36350</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E40" s="36">
         <v>10003</v>
@@ -3339,13 +3443,13 @@
         <v>1000040</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C41" s="34">
         <v>31700</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E41" s="36">
         <v>10003</v>
@@ -3362,13 +3466,13 @@
         <v>1000041</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C42" s="34">
         <v>42000</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E42" s="36">
         <v>10003</v>
@@ -3385,13 +3489,13 @@
         <v>1000042</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C43" s="34">
         <v>35699</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E43" s="36">
         <v>10003</v>
@@ -3408,13 +3512,13 @@
         <v>1000043</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C44" s="34">
         <v>26000</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E44" s="36">
         <v>10004</v>
@@ -3431,13 +3535,13 @@
         <v>1000044</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C45" s="34">
         <v>45690</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E45" s="36">
         <v>10004</v>
@@ -3454,13 +3558,13 @@
         <v>1000045</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C46" s="34">
         <v>63000</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E46" s="36">
         <v>10004</v>
@@ -3477,13 +3581,13 @@
         <v>1000046</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C47" s="34">
         <v>19000</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E47" s="36">
         <v>10004</v>
@@ -3500,13 +3604,13 @@
         <v>1000047</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C48" s="34">
         <v>54750</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E48" s="36">
         <v>10004</v>
@@ -3523,13 +3627,13 @@
         <v>1000048</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C49" s="34">
         <v>4599</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E49" s="34">
         <v>10005</v>
@@ -3546,13 +3650,13 @@
         <v>1000049</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C50" s="34">
         <v>6320</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E50" s="34">
         <v>10005</v>
@@ -3569,13 +3673,13 @@
         <v>1000050</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C51" s="34">
         <v>6500</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E51" s="34">
         <v>10005</v>
@@ -3592,13 +3696,13 @@
         <v>1000051</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C52" s="34">
         <v>8500</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E52" s="34">
         <v>10005</v>
@@ -3615,13 +3719,13 @@
         <v>1000052</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C53" s="34">
         <v>6500</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E53" s="34">
         <v>10005</v>
@@ -3638,13 +3742,13 @@
         <v>1000053</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C54" s="34">
         <v>9620</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E54" s="34">
         <v>10005</v>
@@ -3661,13 +3765,13 @@
         <v>1000054</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C55" s="34">
         <v>4500</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E55" s="34">
         <v>10005</v>
@@ -3684,13 +3788,13 @@
         <v>1000055</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C56" s="34">
         <v>8000</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E56" s="34">
         <v>10005</v>
@@ -3707,13 +3811,13 @@
         <v>1000056</v>
       </c>
       <c r="B57" s="35" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C57" s="34">
         <v>6500</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E57" s="34">
         <v>10005</v>
@@ -3730,13 +3834,13 @@
         <v>1000057</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C58" s="34">
         <v>6540</v>
       </c>
       <c r="D58" s="35" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E58" s="34">
         <v>10005</v>
@@ -3753,13 +3857,13 @@
         <v>1000058</v>
       </c>
       <c r="B59" s="35" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C59" s="34">
         <v>7000</v>
       </c>
       <c r="D59" s="35" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E59" s="34">
         <v>10005</v>
@@ -3776,13 +3880,13 @@
         <v>1000059</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C60" s="34">
         <v>6800</v>
       </c>
       <c r="D60" s="35" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E60" s="34">
         <v>10005</v>
@@ -3799,13 +3903,13 @@
         <v>1000060</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C61" s="34">
         <v>6500</v>
       </c>
       <c r="D61" s="35" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E61" s="34">
         <v>10006</v>
@@ -3822,13 +3926,13 @@
         <v>1000061</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C62" s="34">
         <v>4500</v>
       </c>
       <c r="D62" s="35" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E62" s="34">
         <v>10006</v>
@@ -3845,13 +3949,13 @@
         <v>1000062</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C63" s="34">
         <v>5500</v>
       </c>
       <c r="D63" s="35" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E63" s="34">
         <v>10006</v>
@@ -3868,13 +3972,13 @@
         <v>1000063</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C64" s="34">
         <v>6800</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E64" s="34">
         <v>10006</v>
@@ -3891,13 +3995,13 @@
         <v>1000064</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C65" s="34">
         <v>6700</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E65" s="34">
         <v>10006</v>
@@ -3914,13 +4018,13 @@
         <v>1000065</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C66" s="34">
         <v>5300</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E66" s="34">
         <v>10006</v>
@@ -3937,13 +4041,13 @@
         <v>1000066</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C67" s="34">
         <v>4620</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E67" s="34">
         <v>10006</v>
@@ -3960,13 +4064,13 @@
         <v>1000067</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C68" s="34">
         <v>8000</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E68" s="34">
         <v>10006</v>
@@ -3983,13 +4087,13 @@
         <v>1000068</v>
       </c>
       <c r="B69" s="35" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C69" s="34">
         <v>4600</v>
       </c>
       <c r="D69" s="35" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E69" s="34">
         <v>10006</v>
@@ -4006,13 +4110,13 @@
         <v>1000069</v>
       </c>
       <c r="B70" s="35" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C70" s="34">
         <v>6000</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E70" s="34">
         <v>10006</v>
@@ -4029,13 +4133,13 @@
         <v>1000070</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C71" s="34">
         <v>2500</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E71" s="34">
         <v>10007</v>
@@ -4052,13 +4156,13 @@
         <v>1000071</v>
       </c>
       <c r="B72" s="35" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C72" s="34">
         <v>1200</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E72" s="34">
         <v>10007</v>
@@ -4075,13 +4179,13 @@
         <v>1000072</v>
       </c>
       <c r="B73" s="35" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C73" s="34">
         <v>1600</v>
       </c>
       <c r="D73" s="35" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E73" s="34">
         <v>10007</v>
@@ -4098,13 +4202,13 @@
         <v>1000073</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C74" s="34">
         <v>1600</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E74" s="34">
         <v>10007</v>
@@ -4121,13 +4225,13 @@
         <v>1000074</v>
       </c>
       <c r="B75" s="35" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C75" s="34">
         <v>1700</v>
       </c>
       <c r="D75" s="35" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E75" s="34">
         <v>10007</v>
@@ -4144,13 +4248,13 @@
         <v>1000075</v>
       </c>
       <c r="B76" s="35" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C76" s="34">
         <v>1290</v>
       </c>
       <c r="D76" s="35" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E76" s="34">
         <v>10007</v>
@@ -4167,13 +4271,13 @@
         <v>1000076</v>
       </c>
       <c r="B77" s="35" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C77" s="34">
         <v>800</v>
       </c>
       <c r="D77" s="35" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E77" s="34">
         <v>10007</v>
@@ -4190,13 +4294,13 @@
         <v>1000077</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C78" s="34">
         <v>600</v>
       </c>
       <c r="D78" s="35" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E78" s="34">
         <v>10007</v>
@@ -4213,13 +4317,13 @@
         <v>1000078</v>
       </c>
       <c r="B79" s="35" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C79" s="34">
         <v>450</v>
       </c>
       <c r="D79" s="35" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E79" s="34">
         <v>10007</v>
@@ -4236,13 +4340,13 @@
         <v>1000079</v>
       </c>
       <c r="B80" s="35" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C80" s="34">
         <v>940</v>
       </c>
       <c r="D80" s="35" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E80" s="34">
         <v>10007</v>
@@ -4259,13 +4363,13 @@
         <v>1000080</v>
       </c>
       <c r="B81" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C81" s="34">
         <v>680</v>
       </c>
       <c r="D81" s="35" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E81" s="34">
         <v>10007</v>
@@ -4282,13 +4386,13 @@
         <v>1000081</v>
       </c>
       <c r="B82" s="35" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C82" s="34">
         <v>740</v>
       </c>
       <c r="D82" s="35" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E82" s="34">
         <v>10007</v>
@@ -4305,13 +4409,13 @@
         <v>1000082</v>
       </c>
       <c r="B83" s="35" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C83" s="34">
         <v>860</v>
       </c>
       <c r="D83" s="35" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E83" s="34">
         <v>10007</v>
@@ -4328,13 +4432,13 @@
         <v>1000083</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C84" s="34">
         <v>620</v>
       </c>
       <c r="D84" s="35" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E84" s="34">
         <v>10007</v>
@@ -4351,13 +4455,13 @@
         <v>1000084</v>
       </c>
       <c r="B85" s="35" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C85" s="34">
         <v>250</v>
       </c>
       <c r="D85" s="35" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E85" s="34">
         <v>10007</v>
@@ -4374,13 +4478,13 @@
         <v>1000085</v>
       </c>
       <c r="B86" s="35" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C86" s="34">
         <v>700</v>
       </c>
       <c r="D86" s="35" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E86" s="34">
         <v>10007</v>
@@ -4397,13 +4501,13 @@
         <v>1000086</v>
       </c>
       <c r="B87" s="35" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C87" s="34">
         <v>3200</v>
       </c>
       <c r="D87" s="35" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E87" s="34">
         <v>10008</v>
@@ -4420,13 +4524,13 @@
         <v>1000087</v>
       </c>
       <c r="B88" s="35" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C88" s="34">
         <v>6500</v>
       </c>
       <c r="D88" s="35" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E88" s="34">
         <v>10008</v>
@@ -4443,13 +4547,13 @@
         <v>1000088</v>
       </c>
       <c r="B89" s="35" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C89" s="34">
         <v>9000</v>
       </c>
       <c r="D89" s="35" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E89" s="34">
         <v>10008</v>
@@ -4466,13 +4570,13 @@
         <v>1000089</v>
       </c>
       <c r="B90" s="35" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C90" s="34">
         <v>8600</v>
       </c>
       <c r="D90" s="35" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E90" s="34">
         <v>10008</v>
@@ -4489,13 +4593,13 @@
         <v>1000090</v>
       </c>
       <c r="B91" s="35" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C91" s="34">
         <v>600</v>
       </c>
       <c r="D91" s="35" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E91" s="34">
         <v>10008</v>
@@ -4512,13 +4616,13 @@
         <v>1000091</v>
       </c>
       <c r="B92" s="35" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C92" s="34">
         <v>7500</v>
       </c>
       <c r="D92" s="35" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E92" s="34">
         <v>10008</v>
@@ -4535,13 +4639,13 @@
         <v>1000092</v>
       </c>
       <c r="B93" s="35" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C93" s="34">
         <v>6400</v>
       </c>
       <c r="D93" s="35" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E93" s="34">
         <v>10008</v>
@@ -4558,13 +4662,13 @@
         <v>1000093</v>
       </c>
       <c r="B94" s="35" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C94" s="34">
         <v>8000</v>
       </c>
       <c r="D94" s="35" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E94" s="34">
         <v>10008</v>
@@ -4581,13 +4685,13 @@
         <v>1000094</v>
       </c>
       <c r="B95" s="35" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C95" s="34">
         <v>6400</v>
       </c>
       <c r="D95" s="35" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E95" s="34">
         <v>10008</v>
@@ -4604,13 +4708,13 @@
         <v>1000095</v>
       </c>
       <c r="B96" s="35" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C96" s="34">
         <v>5600</v>
       </c>
       <c r="D96" s="35" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E96" s="34">
         <v>10008</v>
@@ -4627,13 +4731,13 @@
         <v>1000096</v>
       </c>
       <c r="B97" s="35" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C97" s="34">
         <v>2000</v>
       </c>
       <c r="D97" s="35" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E97" s="34">
         <v>10008</v>
@@ -4650,13 +4754,13 @@
         <v>1000097</v>
       </c>
       <c r="B98" s="35" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C98" s="34">
         <v>6400</v>
       </c>
       <c r="D98" s="35" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E98" s="34">
         <v>10008</v>
@@ -4673,13 +4777,13 @@
         <v>1000098</v>
       </c>
       <c r="B99" s="35" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C99" s="34">
         <v>2100</v>
       </c>
       <c r="D99" s="35" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E99" s="34">
         <v>10008</v>
@@ -4696,13 +4800,13 @@
         <v>1000099</v>
       </c>
       <c r="B100" s="35" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C100" s="34">
         <v>8400</v>
       </c>
       <c r="D100" s="35" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E100" s="34">
         <v>10008</v>
@@ -4719,13 +4823,13 @@
         <v>1000100</v>
       </c>
       <c r="B101" s="35" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C101" s="34">
         <v>1000</v>
       </c>
       <c r="D101" s="35" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E101" s="34">
         <v>10008</v>
@@ -4739,5 +4843,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Database_tables.xlsx
+++ b/Database_tables.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="15180" windowHeight="9345"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="15180" windowHeight="9345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TABLES" sheetId="1" r:id="rId1"/>
@@ -747,39 +747,40 @@
     <t>ORDERS</t>
   </si>
   <si>
+    <t>gaurav</t>
+  </si>
+  <si>
+    <t>rohan</t>
+  </si>
+  <si>
+    <t>amit</t>
+  </si>
+  <si>
+    <t>rahul</t>
+  </si>
+  <si>
+    <t>rohit</t>
+  </si>
+  <si>
+    <t>amar</t>
+  </si>
+  <si>
+    <t>priya</t>
+  </si>
+  <si>
+    <t>USERNAME</t>
+  </si>
+  <si>
+    <t>ENABLED</t>
+  </si>
+  <si>
     <t>CREATE TABLE CUSTOMER_ROLE
    ("CUSTOMER_ID" NUMBER(10,0) NOT NULL ENABLE, 
+  "USERNAME" VARCHAR2(30 BYTE) NOT NULL ENABLE, 
  "PASSWORD" VARCHAR2(30 BYTE) NOT NULL ENABLE, 
  "ROLE" VARCHAR2(20 BYTE) NOT NULL ENABLE, 
  "ENABLED" NUMBER(1,0) NOT NULL ENABLE,  
  CONSTRAINT "CUSTOMER_ROLE_PK" PRIMARY KEY ("CUSTOMER_ID"));</t>
-  </si>
-  <si>
-    <t>gaurav</t>
-  </si>
-  <si>
-    <t>rohan</t>
-  </si>
-  <si>
-    <t>amit</t>
-  </si>
-  <si>
-    <t>rahul</t>
-  </si>
-  <si>
-    <t>rohit</t>
-  </si>
-  <si>
-    <t>amar</t>
-  </si>
-  <si>
-    <t>priya</t>
-  </si>
-  <si>
-    <t>USERNAME</t>
-  </si>
-  <si>
-    <t>ENABLED</t>
   </si>
 </sst>
 </file>
@@ -1297,7 +1298,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -1331,7 +1332,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>13</v>
@@ -1340,7 +1341,7 @@
         <v>27</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -1873,8 +1874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1933,7 +1934,7 @@
       <c r="B6" s="5"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:3" ht="76.5">
+    <row r="7" spans="1:3" ht="89.25">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -1941,7 +1942,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2199,7 +2200,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C1" s="33" t="s">
         <v>13</v>
@@ -2208,7 +2209,7 @@
         <v>27</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25">
@@ -2216,7 +2217,7 @@
         <v>100001</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>58</v>
@@ -2233,7 +2234,7 @@
         <v>100002</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>58</v>
@@ -2250,7 +2251,7 @@
         <v>100003</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>58</v>
@@ -2267,7 +2268,7 @@
         <v>100004</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>58</v>
@@ -2284,7 +2285,7 @@
         <v>100005</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>58</v>
@@ -2301,7 +2302,7 @@
         <v>100006</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>58</v>
@@ -2318,7 +2319,7 @@
         <v>100007</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>58</v>
@@ -2340,7 +2341,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/Database_tables.xlsx
+++ b/Database_tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="15180" windowHeight="9345" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="15180" windowHeight="9345" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="TABLES" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="CUSTOMER_ROLE_DATA" sheetId="4" r:id="rId4"/>
     <sheet name="CUSTOMER_DATA" sheetId="5" r:id="rId5"/>
     <sheet name="PRODUCT_DATA" sheetId="6" r:id="rId6"/>
+    <sheet name="ORDER_STATUS" sheetId="8" r:id="rId7"/>
+    <sheet name="Sequences" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="80000"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="285">
   <si>
     <t>CATEGORY</t>
   </si>
@@ -821,17 +823,6 @@
   </si>
   <si>
     <t>NEW DELHI</t>
-  </si>
-  <si>
-    <t>CREATE TABLE CUSTOMER_ROLE
-   ( "CUSTOMER_ID" NUMBER(10,0) NOT NULL ENABLE, 
- "USERNAME" VARCHAR2(30 BYTE) NOT NULL ENABLE, 
- "PASSWORD" VARCHAR2(30 BYTE) NOT NULL ENABLE, 
- "ROLE" VARCHAR2(20 BYTE) NOT NULL ENABLE, 
- "ENABLED" NUMBER(1,0) NOT NULL ENABLE, 
-  CONSTRAINT "CUSTOMER_ROLE_PK" PRIMARY KEY ("CUSTOMER_ID"), 
-  CONSTRAINT "CUSTOMER_ROLE_FK1" FOREIGN KEY ("CUSTOMER_ID")
-   REFERENCES "HR"."CUSTOMER" ("CUSTOMER_ID") ON DELETE CASCADE ENABLE);</t>
   </si>
   <si>
     <t>CREATE TABLE ORDER_DETAILS
@@ -897,12 +888,113 @@
   CONSTRAINT "CHECKOUT_FK2" FOREIGN KEY ("PRODUCT_ID")
    REFERENCES "HR"."PRODUCT" ("PRODUCT_ID") ENABLE);</t>
   </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>CREATE SEQUENCE SHOPMART_CUSTOMER_SEQ
+ START WITH     100001
+ INCREMENT BY   1
+ MINVALUE 100001
+ NOCACHE
+ NOCYCLE
+ ORDER ;</t>
+  </si>
+  <si>
+    <t>CREATE SEQUENCE SHOPMART_CATEGORY_SEQ
+ START WITH     10001
+ INCREMENT BY   1
+ MINVALUE 10001
+ NOCACHE
+ NOCYCLE
+ ORDER ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CREATE SEQUENCE SHOPMART_PRODUCT_SEQ
+ START WITH     1000001
+ INCREMENT BY   1
+ MINVALUE 1000001
+ NOCACHE
+ NOCYCLE
+ ORDER ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CREATE SEQUENCE SHOPMART_ORDERS_SEQ
+ START WITH     10000001
+ INCREMENT BY   1
+ MINVALUE 10000001
+ NOCACHE
+ NOCYCLE
+ ORDER ;</t>
+  </si>
+  <si>
+    <t>Order placed</t>
+  </si>
+  <si>
+    <t>Order placed successfully</t>
+  </si>
+  <si>
+    <t>Order shipped</t>
+  </si>
+  <si>
+    <t>Order is shipped</t>
+  </si>
+  <si>
+    <t>Order in transit</t>
+  </si>
+  <si>
+    <t>Order in transit phase</t>
+  </si>
+  <si>
+    <t>Out for delivery</t>
+  </si>
+  <si>
+    <t>Order is out for delivery</t>
+  </si>
+  <si>
+    <t>Order delivered</t>
+  </si>
+  <si>
+    <t>Order is delivered</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CREATE SEQUENCE SHOPMART_INVOICE_SEQ
+ START WITH     50000001
+ INCREMENT BY   1
+ MINVALUE 50000001
+ NOCACHE
+ NOCYCLE
+ ORDER ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CREATE SEQUENCE SHOPMART_PAYMENT_SEQ
+ START WITH     80000001
+ INCREMENT BY   1
+ MINVALUE 80000001
+ NOCACHE
+ NOCYCLE
+ ORDER ;</t>
+  </si>
+  <si>
+    <t>CREATE TABLE CUSTOMER_ROLE
+   ( "CUSTOMER_ID" NUMBER(10,0) NOT NULL ENABLE, 
+ "USERNAME" VARCHAR2(30 BYTE) NOT NULL ENABLE, 
+ "PASSWORD" VARCHAR2(30 BYTE) NOT NULL ENABLE, 
+ "ROLE" VARCHAR2(20 BYTE) NOT NULL ENABLE, 
+ "ENABLED" NUMBER(1,0) NOT NULL ENABLE, 
+  CONSTRAINT "CUSTOMER_ROLE_PK" PRIMARY KEY ("CUSTOMER_ID"),           CONSTRAINT "CUSTOMER_ROLE_UK1" UNIQUE ("USERNAME"),
+  CONSTRAINT "CUSTOMER_ROLE_FK1" FOREIGN KEY ("CUSTOMER_ID")
+   REFERENCES "HR"."CUSTOMER" ("CUSTOMER_ID") ON DELETE CASCADE ENABLE);</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -959,6 +1051,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1060,7 +1159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1184,6 +1283,27 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1458,7 +1578,7 @@
   <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2070,8 +2190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J8:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2122,7 +2242,7 @@
         <v>220</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2130,7 +2250,7 @@
       <c r="B6" s="5"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:3" ht="127.5">
+    <row r="7" spans="1:3" ht="140.25">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -2138,7 +2258,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2154,7 +2274,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2170,7 +2290,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2186,7 +2306,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2218,7 +2338,7 @@
         <v>234</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2234,7 +2354,7 @@
         <v>236</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -2252,7 +2372,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5464,4 +5584,168 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="52">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="52">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="52">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="52">
+        <v>1004</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="52">
+        <v>1005</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="20" style="50" customWidth="1"/>
+    <col min="2" max="2" width="96.42578125" style="46" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="89.25">
+      <c r="A2" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="89.25">
+      <c r="A3" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="89.25">
+      <c r="A4" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="89.25">
+      <c r="A5" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="89.25">
+      <c r="A6" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="89.25">
+      <c r="A7" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>283</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>